--- a/Output_Folders/Concept_Norm_Files/character_info_full.xlsx
+++ b/Output_Folders/Concept_Norm_Files/character_info_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MaylaB/Dropbox/Documents/0_Thesis_stuff-Larry_Sonia/Negacy_seq_2_seq_NER_model/ConceptRecognition/Concept_Norm_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5983CF7E-1126-E940-9FEA-04F9C9FBC5F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6A92EB-50B0-DC4C-8D64-A6DF8DF2E754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15120" xr2:uid="{CEC5F9E8-D35C-2E40-A60E-0D50A783CE4B}"/>
+    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15120" activeTab="1" xr2:uid="{CEC5F9E8-D35C-2E40-A60E-0D50A783CE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="core set" sheetId="2" r:id="rId1"/>
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6A08D1-940A-2A48-9771-DBAA3C54238A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95F480C-48E2-CE43-AA50-FA5C4088FE6F}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
